--- a/DataProviders/inputData.xlsx
+++ b/DataProviders/inputData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
     <workbookView windowHeight="2985" windowWidth="14085" xWindow="0" yWindow="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Mervin</t>
   </si>
@@ -29,211 +29,70 @@
     <t>Datos de Prueba</t>
   </si>
   <si>
-    <t>Elementos</t>
-  </si>
-  <si>
-    <t>Datos de Cabecera</t>
-  </si>
-  <si>
-    <t>Lugar</t>
-  </si>
-  <si>
-    <t>Tramite</t>
-  </si>
-  <si>
-    <t>Prioridad</t>
-  </si>
-  <si>
-    <t>Canal</t>
-  </si>
-  <si>
-    <t>Canal Tradicional</t>
-  </si>
-  <si>
-    <t>Bajo</t>
-  </si>
-  <si>
-    <t>Datos de Contacto</t>
-  </si>
-  <si>
-    <t>Apellidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nombres</t>
-  </si>
-  <si>
-    <t>Direccion</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>Distrito</t>
-  </si>
-  <si>
-    <t>Telefono1</t>
-  </si>
-  <si>
-    <t>Telefono2</t>
-  </si>
-  <si>
-    <t>Email1</t>
-  </si>
-  <si>
-    <t>Email2</t>
-  </si>
-  <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>95625072</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Numero de Documento </t>
-  </si>
-  <si>
-    <t>Tipo Documento</t>
-  </si>
-  <si>
-    <t>Diaz</t>
-  </si>
-  <si>
-    <t>Diaz Lugo</t>
-  </si>
-  <si>
-    <t>Santiago del Esteros 2060</t>
-  </si>
-  <si>
     <t>1168677091</t>
   </si>
   <si>
-    <t>1168677092</t>
-  </si>
-  <si>
     <t>mervindiazlugo@gmail.com</t>
   </si>
   <si>
-    <t>diazmervin@gmail.com</t>
-  </si>
-  <si>
-    <t>95625073</t>
-  </si>
-  <si>
-    <t>Miguel</t>
-  </si>
-  <si>
-    <t>Santiago del Esteros 2061</t>
-  </si>
-  <si>
-    <t>1168677093</t>
-  </si>
-  <si>
-    <t>1168677094</t>
-  </si>
-  <si>
-    <t>Migueldiazlugo@gmail.com</t>
-  </si>
-  <si>
-    <t>diazmiguel@gmail.com</t>
-  </si>
-  <si>
-    <t>Dacosta</t>
-  </si>
-  <si>
-    <t>Antony</t>
-  </si>
-  <si>
-    <t>Santiago del Esteros 2062</t>
-  </si>
-  <si>
-    <t>LA LIBERTAD</t>
-  </si>
-  <si>
-    <t>JULCAN</t>
-  </si>
-  <si>
-    <t>CALAMARCA</t>
-  </si>
-  <si>
-    <t>LORETO</t>
-  </si>
-  <si>
-    <t>ALTO AMAZONAS</t>
-  </si>
-  <si>
-    <t>SANTA CRUZ</t>
-  </si>
-  <si>
-    <t>IDTarea</t>
-  </si>
-  <si>
-    <t>1942</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Datos Cobertura</t>
-  </si>
-  <si>
-    <t>Accion</t>
-  </si>
-  <si>
-    <t>Aprobar</t>
-  </si>
-  <si>
-    <t>Moneda</t>
-  </si>
-  <si>
-    <t>Dólares</t>
-  </si>
-  <si>
-    <t>Soles</t>
-  </si>
-  <si>
-    <t>Monto a Pagar</t>
-  </si>
-  <si>
-    <t>Valor del Cambio</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1944</t>
-  </si>
-  <si>
-    <t>1946</t>
-  </si>
-  <si>
-    <t>1948</t>
-  </si>
-  <si>
-    <t>1951</t>
-  </si>
-  <si>
-    <t>1953</t>
-  </si>
-  <si>
-    <t>1955</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>2025</t>
+    <t>Registro Gmail</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Confirm Pass</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Movil</t>
+  </si>
+  <si>
+    <t>Email Actual</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>TestersLeague7000</t>
+  </si>
+  <si>
+    <t>Tt70002016</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Enviados</t>
+  </si>
+  <si>
+    <t>Month       [1-12]</t>
+  </si>
+  <si>
+    <t>Gender [e,f,g,h]</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -241,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,7 +129,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +151,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
@@ -336,6 +231,24 @@
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="6" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="8" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="10" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,7 +347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -643,54 +556,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="27.42578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="28.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="16.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="10" max="11" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="4" max="10" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
     <col min="12" max="13" bestFit="true" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
     <col min="14" max="14" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
     <col min="15" max="16384" style="1" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
       <c r="N1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="6" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -706,265 +614,146 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row ht="36" r="3" spans="1:14">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="8"/>
+    </row>
+    <row customFormat="1" r="4" s="2" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="8"/>
-    </row>
-    <row customFormat="1" r="4" s="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
+      <c r="M4" t="s">
+        <v>22</v>
       </c>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="5" spans="1:14">
       <c r="N5" s="8"/>
     </row>
-    <row customFormat="1" r="6" s="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>33</v>
-      </c>
+    <row customFormat="1" r="6" s="2" spans="1:14">
+      <c r="M6" s="7"/>
       <c r="N6"/>
     </row>
-    <row customFormat="1" r="7" s="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row customFormat="1" r="8" s="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="2" spans="1:14">
+      <c r="N7"/>
+    </row>
+    <row customFormat="1" r="8" s="2" spans="1:14">
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
+    <row r="10" spans="1:14">
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>60</v>
-      </c>
+    <row r="12" spans="1:14">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>63</v>
-      </c>
+    <row r="13" spans="1:14">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>62</v>
-      </c>
+    <row r="14" spans="1:14">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>62</v>
-      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
+    <row r="16" spans="1:14">
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5">
       <c r="C17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5">
       <c r="C18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:M1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -974,7 +763,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
